--- a/ExportTool/bin/Debug/Category.xlsx
+++ b/ExportTool/bin/Debug/Category.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -954,6 +954,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
